--- a/SA 1/Week2/L2!/InClass/01_02_LOOKUP.xlsx
+++ b/SA 1/Week2/L2!/InClass/01_02_LOOKUP.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitRepo\MUFYICT\SA 1\Week2\L2!\InClass\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\MUFYICT\SA 1\Week2\L2!\InClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15497" windowHeight="6137" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15495" windowHeight="6135" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Activity 1" sheetId="1" r:id="rId1"/>
@@ -325,7 +325,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -629,11 +629,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -690,6 +716,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2146,16 +2174,16 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="12.69140625" customWidth="1"/>
-    <col min="6" max="7" width="10.69140625" customWidth="1"/>
+    <col min="1" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2181,7 +2209,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2191,8 +2219,14 @@
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="2" t="str">
+        <f>VLOOKUP(C2,$A$11:$B$14,2)</f>
+        <v>Mr. Lam</v>
+      </c>
+      <c r="E2" s="2">
+        <f>VLOOKUP(C2,$A$11:$C$14,3)</f>
+        <v>316</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -2203,7 +2237,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2213,8 +2247,14 @@
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3:D6" si="0">VLOOKUP(C3,$A$11:$B$14,2)</f>
+        <v>Dr. Zhou</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E6" si="1">VLOOKUP(C3,$A$11:$C$14,3)</f>
+        <v>318</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -2225,7 +2265,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2235,8 +2275,14 @@
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ms. Megat</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="1"/>
+        <v>317</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -2247,7 +2293,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -2257,8 +2303,14 @@
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Dr. Brown</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>315</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -2269,7 +2321,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -2279,8 +2331,14 @@
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Dr. Zhou</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>318</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -2291,7 +2349,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2307,7 +2365,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2323,7 +2381,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>19</v>
       </c>
@@ -2341,7 +2399,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -2363,7 +2421,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -2385,7 +2443,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -2407,7 +2465,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -2429,7 +2487,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -2451,7 +2509,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2467,7 +2525,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2483,7 +2541,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2499,7 +2557,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2515,7 +2573,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2531,7 +2589,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2562,22 +2620,22 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.3046875" customWidth="1"/>
-    <col min="2" max="2" width="12.69140625" customWidth="1"/>
-    <col min="3" max="3" width="19.84375" customWidth="1"/>
-    <col min="4" max="4" width="16.69140625" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="12.69140625" customWidth="1"/>
-    <col min="7" max="7" width="19.3828125" customWidth="1"/>
-    <col min="8" max="8" width="16.69140625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="28" t="s">
         <v>44</v>
@@ -2592,7 +2650,7 @@
       <c r="H1" s="24"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -2603,7 +2661,7 @@
       <c r="H2" s="27"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>24</v>
@@ -2626,13 +2684,19 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="7" t="str">
+        <f>VLOOKUP(B4,$F$4:$G$11,2)</f>
+        <v>Colombo</v>
+      </c>
+      <c r="D4" s="8">
+        <f>VLOOKUP(B4,$F$4:$H$11,3)</f>
+        <v>8351</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="9" t="s">
         <v>27</v>
@@ -2645,13 +2709,19 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="7" t="str">
+        <f t="shared" ref="C5:C11" si="0">VLOOKUP(B5,$F$4:$G$11,2)</f>
+        <v>London Heathrow</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" ref="D5:D11" si="1">VLOOKUP(B5,$F$4:$H$11,3)</f>
+        <v>16925</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="12" t="s">
         <v>29</v>
@@ -2664,13 +2734,19 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
+      <c r="C6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Shanghai</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" si="1"/>
+        <v>8003</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="12" t="s">
         <v>31</v>
@@ -2683,13 +2759,19 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
+      <c r="C7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Sydney</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="1"/>
+        <v>878</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="12" t="s">
         <v>41</v>
@@ -2702,13 +2784,19 @@
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
+      <c r="C8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Jakarta</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="1"/>
+        <v>5209</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="12" t="s">
         <v>40</v>
@@ -2721,13 +2809,19 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
+      <c r="C9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Kuala Lumpur</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="1"/>
+        <v>6360</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="12" t="s">
         <v>35</v>
@@ -2740,13 +2834,19 @@
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
+      <c r="C10" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>Perth</v>
+      </c>
+      <c r="D10" s="31">
+        <f t="shared" si="1"/>
+        <v>2721</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="12" t="s">
         <v>39</v>
@@ -2759,13 +2859,19 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
+      <c r="C11" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Singapore</v>
+      </c>
+      <c r="D11" s="17">
+        <f t="shared" si="1"/>
+        <v>6057</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="15" t="s">
         <v>33</v>
@@ -2778,7 +2884,7 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2789,7 +2895,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2800,7 +2906,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2811,7 +2917,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2822,7 +2928,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2833,7 +2939,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2844,10 +2950,10 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="20" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="21" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="F4:G11">
     <sortCondition ref="F4:F11"/>
@@ -2867,19 +2973,19 @@
   <dimension ref="C2:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.84375" style="2"/>
-    <col min="3" max="4" width="12.69140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.84375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="12.69140625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.84375" style="2"/>
+    <col min="1" max="2" width="8.85546875" style="2"/>
+    <col min="3" max="4" width="12.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="2" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C2" s="29" t="s">
         <v>83</v>
       </c>
@@ -2888,14 +2994,14 @@
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
     </row>
-    <row r="4" spans="3:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="19" t="s">
         <v>62</v>
       </c>
@@ -2912,47 +3018,107 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="E5" s="2" t="str">
+        <f>VLOOKUP(D5,$D$19:$G$23,2)</f>
+        <v>Human Resources</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f>VLOOKUP(D5,$D$19:$G$23,3)</f>
+        <v>Ms. Gyo</v>
+      </c>
+      <c r="G5" s="2">
+        <f>VLOOKUP(D5,$D$19:$G$23,4)</f>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D6" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="E6" s="2" t="str">
+        <f t="shared" ref="E6:E9" si="0">VLOOKUP(D6,$D$19:$G$23,2)</f>
+        <v>Finance</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f t="shared" ref="F6:F9" si="1">VLOOKUP(D6,$D$19:$G$23,3)</f>
+        <v>Ms. Park</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" ref="G6:G9" si="2">VLOOKUP(D6,$D$19:$G$23,4)</f>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="E7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Administration</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Ms. Lee</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="2"/>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="E8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Logistics</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Ms. Kwok</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="2"/>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D9" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="E9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Finance</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Ms. Park</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D16" s="29" t="s">
         <v>82</v>
       </c>
@@ -2960,13 +3126,13 @@
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
     </row>
-    <row r="18" spans="4:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="19" t="s">
         <v>71</v>
       </c>
@@ -2980,7 +3146,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D19" s="2">
         <v>1</v>
       </c>
@@ -2994,7 +3160,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D20" s="2">
         <v>2</v>
       </c>
@@ -3008,7 +3174,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D21" s="2">
         <v>3</v>
       </c>
@@ -3022,7 +3188,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D22" s="2">
         <v>4</v>
       </c>
@@ -3036,7 +3202,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D23" s="2">
         <v>5</v>
       </c>
@@ -3064,18 +3230,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="12.69140625" customWidth="1"/>
-    <col min="12" max="12" width="12.69140625" customWidth="1"/>
-    <col min="13" max="13" width="10.69140625" customWidth="1"/>
+    <col min="1" max="7" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>52</v>
       </c>
@@ -3093,7 +3259,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -3109,7 +3275,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>45</v>
       </c>
@@ -3139,7 +3305,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>58</v>
       </c>
@@ -3173,7 +3339,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>56</v>
       </c>
@@ -3207,7 +3373,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>59</v>
       </c>
@@ -3241,7 +3407,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
@@ -3275,7 +3441,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>57</v>
       </c>
@@ -3309,7 +3475,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>60</v>
       </c>
@@ -3343,7 +3509,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -3377,7 +3543,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>54</v>
       </c>
@@ -3411,7 +3577,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
@@ -3445,7 +3611,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3459,7 +3625,7 @@
       <c r="K13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3473,7 +3639,7 @@
       <c r="K14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>84</v>
       </c>
@@ -3487,7 +3653,7 @@
       <c r="K15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
       <c r="B16" s="29"/>
       <c r="E16" s="2"/>
@@ -3499,7 +3665,7 @@
       <c r="K16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -3515,7 +3681,7 @@
       <c r="K17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0</v>
       </c>
@@ -3531,7 +3697,7 @@
       <c r="K18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>350</v>
       </c>
@@ -3539,7 +3705,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>750</v>
       </c>
@@ -3547,7 +3713,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1500</v>
       </c>
@@ -3555,7 +3721,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>3000</v>
       </c>
